--- a/files/excel_tps_kecamatan.xlsx
+++ b/files/excel_tps_kecamatan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Documents\work\form-pml\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD2222-71AA-4D82-9554-7B2FE9B39EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881F157-D46E-41A7-9D9D-34DDCEC6948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{7881C325-6246-4F87-BBF7-FF7BE7C661D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>NRP</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2B1111-553B-4ABE-844C-30AF1810CBAF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +502,7 @@
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,6 +520,15 @@
       </c>
       <c r="F1" t="s">
         <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
